--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema4a-Plxnb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema4a-Plxnb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>25.81602566666667</v>
+        <v>0.03994766666666667</v>
       </c>
       <c r="H2">
-        <v>77.44807700000001</v>
+        <v>0.119843</v>
       </c>
       <c r="I2">
-        <v>0.7742517153725241</v>
+        <v>0.009195128023837375</v>
       </c>
       <c r="J2">
-        <v>0.7742517153725241</v>
+        <v>0.009195128023837375</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6893159999999999</v>
+        <v>0.155697</v>
       </c>
       <c r="N2">
-        <v>2.067948</v>
+        <v>0.467091</v>
       </c>
       <c r="O2">
-        <v>0.1083604551316437</v>
+        <v>0.021288392311201</v>
       </c>
       <c r="P2">
-        <v>0.1083604551316437</v>
+        <v>0.021288392311201</v>
       </c>
       <c r="Q2">
-        <v>17.795399548444</v>
+        <v>0.006219731857</v>
       </c>
       <c r="R2">
-        <v>160.158595935996</v>
+        <v>0.05597758671300001</v>
       </c>
       <c r="S2">
-        <v>0.08389826826422259</v>
+        <v>0.0001957494927231684</v>
       </c>
       <c r="T2">
-        <v>0.08389826826422257</v>
+        <v>0.0001957494927231684</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>25.81602566666667</v>
+        <v>0.03994766666666667</v>
       </c>
       <c r="H3">
-        <v>77.44807700000001</v>
+        <v>0.119843</v>
       </c>
       <c r="I3">
-        <v>0.7742517153725241</v>
+        <v>0.009195128023837375</v>
       </c>
       <c r="J3">
-        <v>0.7742517153725241</v>
+        <v>0.009195128023837375</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.248877</v>
       </c>
       <c r="O3">
-        <v>0.01304115238477858</v>
+        <v>0.01134295290047287</v>
       </c>
       <c r="P3">
-        <v>0.01304115238477858</v>
+        <v>0.01134295290047287</v>
       </c>
       <c r="Q3">
-        <v>2.141671673281</v>
+        <v>0.003314018479</v>
       </c>
       <c r="R3">
-        <v>19.275045059529</v>
+        <v>0.029826166311</v>
       </c>
       <c r="S3">
-        <v>0.0100971346043493</v>
+        <v>0.0001042999040882055</v>
       </c>
       <c r="T3">
-        <v>0.0100971346043493</v>
+        <v>0.0001042999040882055</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>25.81602566666667</v>
+        <v>0.03994766666666667</v>
       </c>
       <c r="H4">
-        <v>77.44807700000001</v>
+        <v>0.119843</v>
       </c>
       <c r="I4">
-        <v>0.7742517153725241</v>
+        <v>0.009195128023837375</v>
       </c>
       <c r="J4">
-        <v>0.7742517153725241</v>
+        <v>0.009195128023837375</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.589049333333333</v>
+        <v>7.075048</v>
       </c>
       <c r="N4">
-        <v>16.767148</v>
+        <v>21.225144</v>
       </c>
       <c r="O4">
-        <v>0.8785983924835777</v>
+        <v>0.9673686547883261</v>
       </c>
       <c r="P4">
-        <v>0.8785983924835776</v>
+        <v>0.9673686547883261</v>
       </c>
       <c r="Q4">
-        <v>144.2870410415996</v>
+        <v>0.2826316591546666</v>
       </c>
       <c r="R4">
-        <v>1298.583369374396</v>
+        <v>2.543684932392</v>
       </c>
       <c r="S4">
-        <v>0.6802563125039522</v>
+        <v>0.008895078627026001</v>
       </c>
       <c r="T4">
-        <v>0.6802563125039522</v>
+        <v>0.008895078627026001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>8.155583</v>
       </c>
       <c r="I5">
-        <v>0.08153170965901445</v>
+        <v>0.6257489364754861</v>
       </c>
       <c r="J5">
-        <v>0.08153170965901445</v>
+        <v>0.6257489364754861</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6893159999999999</v>
+        <v>0.155697</v>
       </c>
       <c r="N5">
-        <v>2.067948</v>
+        <v>0.467091</v>
       </c>
       <c r="O5">
-        <v>0.1083604551316437</v>
+        <v>0.021288392311201</v>
       </c>
       <c r="P5">
-        <v>0.1083604551316437</v>
+        <v>0.021288392311201</v>
       </c>
       <c r="Q5">
-        <v>1.873924617076</v>
+        <v>0.423266602117</v>
       </c>
       <c r="R5">
-        <v>16.865321553684</v>
+        <v>3.809399419053</v>
       </c>
       <c r="S5">
-        <v>0.008834813166311838</v>
+        <v>0.01332118884800694</v>
       </c>
       <c r="T5">
-        <v>0.008834813166311836</v>
+        <v>0.01332118884800694</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>8.155583</v>
       </c>
       <c r="I6">
-        <v>0.08153170965901445</v>
+        <v>0.6257489364754861</v>
       </c>
       <c r="J6">
-        <v>0.08153170965901445</v>
+        <v>0.6257489364754861</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.248877</v>
       </c>
       <c r="O6">
-        <v>0.01304115238477858</v>
+        <v>0.01134295290047287</v>
       </c>
       <c r="P6">
-        <v>0.01304115238477858</v>
+        <v>0.01134295290047287</v>
       </c>
       <c r="Q6">
         <v>0.225526336699</v>
@@ -818,10 +818,10 @@
         <v>2.029737030291</v>
       </c>
       <c r="S6">
-        <v>0.001063267449854731</v>
+        <v>0.007097840713962427</v>
       </c>
       <c r="T6">
-        <v>0.001063267449854731</v>
+        <v>0.007097840713962427</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>8.155583</v>
       </c>
       <c r="I7">
-        <v>0.08153170965901445</v>
+        <v>0.6257489364754861</v>
       </c>
       <c r="J7">
-        <v>0.08153170965901445</v>
+        <v>0.6257489364754861</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.589049333333333</v>
+        <v>7.075048</v>
       </c>
       <c r="N7">
-        <v>16.767148</v>
+        <v>21.225144</v>
       </c>
       <c r="O7">
-        <v>0.8785983924835777</v>
+        <v>0.9673686547883261</v>
       </c>
       <c r="P7">
-        <v>0.8785983924835776</v>
+        <v>0.9673686547883261</v>
       </c>
       <c r="Q7">
-        <v>15.19398524303155</v>
+        <v>19.23371373099467</v>
       </c>
       <c r="R7">
-        <v>136.745867187284</v>
+        <v>173.103423578952</v>
       </c>
       <c r="S7">
-        <v>0.07163362904284788</v>
+        <v>0.6053299069135167</v>
       </c>
       <c r="T7">
-        <v>0.07163362904284787</v>
+        <v>0.6053299069135167</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.808641333333334</v>
+        <v>1.585963</v>
       </c>
       <c r="H8">
-        <v>14.425924</v>
+        <v>4.757889</v>
       </c>
       <c r="I8">
-        <v>0.1442165749684613</v>
+        <v>0.3650559355006766</v>
       </c>
       <c r="J8">
-        <v>0.1442165749684613</v>
+        <v>0.3650559355006766</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6893159999999999</v>
+        <v>0.155697</v>
       </c>
       <c r="N8">
-        <v>2.067948</v>
+        <v>0.467091</v>
       </c>
       <c r="O8">
-        <v>0.1083604551316437</v>
+        <v>0.021288392311201</v>
       </c>
       <c r="P8">
-        <v>0.1083604551316437</v>
+        <v>0.021288392311201</v>
       </c>
       <c r="Q8">
-        <v>3.314673409328</v>
+        <v>0.246929681211</v>
       </c>
       <c r="R8">
-        <v>29.832060683952</v>
+        <v>2.222367130899</v>
       </c>
       <c r="S8">
-        <v>0.01562737370110928</v>
+        <v>0.007771453970470891</v>
       </c>
       <c r="T8">
-        <v>0.01562737370110928</v>
+        <v>0.007771453970470891</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.808641333333334</v>
+        <v>1.585963</v>
       </c>
       <c r="H9">
-        <v>14.425924</v>
+        <v>4.757889</v>
       </c>
       <c r="I9">
-        <v>0.1442165749684613</v>
+        <v>0.3650559355006766</v>
       </c>
       <c r="J9">
-        <v>0.1442165749684613</v>
+        <v>0.3650559355006766</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.248877</v>
       </c>
       <c r="O9">
-        <v>0.01304115238477858</v>
+        <v>0.01134295290047287</v>
       </c>
       <c r="P9">
-        <v>0.01304115238477858</v>
+        <v>0.01134295290047287</v>
       </c>
       <c r="Q9">
-        <v>0.3989200763720001</v>
+        <v>0.131569904517</v>
       </c>
       <c r="R9">
-        <v>3.590280687348001</v>
+        <v>1.184129140653</v>
       </c>
       <c r="S9">
-        <v>0.001880750330574548</v>
+        <v>0.004140812282422235</v>
       </c>
       <c r="T9">
-        <v>0.001880750330574548</v>
+        <v>0.004140812282422235</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.808641333333334</v>
+        <v>1.585963</v>
       </c>
       <c r="H10">
-        <v>14.425924</v>
+        <v>4.757889</v>
       </c>
       <c r="I10">
-        <v>0.1442165749684613</v>
+        <v>0.3650559355006766</v>
       </c>
       <c r="J10">
-        <v>0.1442165749684613</v>
+        <v>0.3650559355006766</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.589049333333333</v>
+        <v>7.075048</v>
       </c>
       <c r="N10">
-        <v>16.767148</v>
+        <v>21.225144</v>
       </c>
       <c r="O10">
-        <v>0.8785983924835777</v>
+        <v>0.9673686547883261</v>
       </c>
       <c r="P10">
-        <v>0.8785983924835776</v>
+        <v>0.9673686547883261</v>
       </c>
       <c r="Q10">
-        <v>26.87573363830578</v>
+        <v>11.220764351224</v>
       </c>
       <c r="R10">
-        <v>241.881602744752</v>
+        <v>100.986879161016</v>
       </c>
       <c r="S10">
-        <v>0.1267084509367775</v>
+        <v>0.3531436692477834</v>
       </c>
       <c r="T10">
-        <v>0.1267084509367775</v>
+        <v>0.3531436692477834</v>
       </c>
     </row>
   </sheetData>
